--- a/data/Benchmark_Data_Pivot.xlsx
+++ b/data/Benchmark_Data_Pivot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42.66457320065805</v>
+        <v>67.20473385133047</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32.07033993460573</v>
+        <v>78.63010069662232</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>85.90819579932058</v>
+        <v>72.43458032973052</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>85.24068197080739</v>
+        <v>29.81239756343025</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58.29060015310971</v>
+        <v>112.467889172675</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>98.02336050081948</v>
+        <v>47.97833772166527</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>41.49928456059973</v>
+        <v>115.1250582621385</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>55.33196789161902</v>
+        <v>80.79870948563672</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>76.93306421135722</v>
+        <v>74.95113270080171</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>117.8684676525102</v>
+        <v>60.77557172992015</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26.7311540241746</v>
+        <v>97.76304832841411</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>57.81059284620971</v>
+        <v>109.235535057134</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>115.7071936317938</v>
+        <v>43.74138976081582</v>
       </c>
     </row>
     <row r="15">
@@ -629,90 +629,90 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>90.04919478108739</v>
+        <v>37.5766571147183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Career Growth</t>
+          <t>Work Life Balance</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>83.44394711474659</v>
+        <v>30.19232658888301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Career Growth</t>
+          <t>Work Life Balance</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>51.42882730440155</v>
+        <v>35.40293979630021</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Career Growth</t>
+          <t>Work Life Balance</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>91.30494565446023</v>
+        <v>108.0975997812136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Career Growth</t>
+          <t>Work Life Balance</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>53.85237101017578</v>
+        <v>96.56955052210475</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Career Growth</t>
+          <t>Work Life Balance</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.26173277504419</v>
+        <v>28.54760002264616</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Career Growth</t>
+          <t>Work Life Balance</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>104.2198591589407</v>
+        <v>100.2466061084747</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -720,12 +720,12 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>39.41613945827162</v>
+        <v>46.07665320990305</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -733,12 +733,12 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>108.0914655182148</v>
+        <v>73.33352598562178</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -746,12 +746,12 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>11.83680526988351</v>
+        <v>36.39006831610373</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -759,12 +759,12 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>34.93540751392739</v>
+        <v>21.56964384126162</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -772,12 +772,12 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>58.33904252544976</v>
+        <v>72.9822244490293</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -785,12 +785,12 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>28.28673906268114</v>
+        <v>94.406976086239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -798,12 +798,12 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>67.684081817014</v>
+        <v>100.0408759846802</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -811,168 +811,168 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>47.67084159234977</v>
+        <v>20.62052569120796</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Compensation</t>
+          <t>Career Growth</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>110.3736731718898</v>
+        <v>33.76300632014023</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Compensation</t>
+          <t>Career Growth</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>27.10409715298731</v>
+        <v>99.69559907193678</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Compensation</t>
+          <t>Career Growth</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>114.3055978810442</v>
+        <v>56.57585366599079</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Compensation</t>
+          <t>Career Growth</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>88.08546543371043</v>
+        <v>47.13436980365095</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Compensation</t>
+          <t>Career Growth</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>62.93630877370196</v>
+        <v>79.53369367425483</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Compensation</t>
+          <t>Career Growth</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>47.63064210578121</v>
+        <v>34.64945386748243</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Compensation</t>
+          <t>Career Growth</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>117.4910927359335</v>
+        <v>23.70128457989871</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Compensation</t>
+          <t>Career Growth</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>121.3040254051418</v>
+        <v>50.47987470739064</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Compensation</t>
+          <t>Career Growth</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>46.35271529981099</v>
+        <v>32.53923203854022</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Compensation</t>
+          <t>Career Growth</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>66.26929259530763</v>
+        <v>106.9302808920604</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Compensation</t>
+          <t>Career Growth</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>118.9597437623324</v>
+        <v>61.7410190091136</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Compensation</t>
+          <t>Career Growth</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>120.7498675189967</v>
+        <v>40.82497456475512</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -980,12 +980,12 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>76.24929741873757</v>
+        <v>52.85596913433723</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -993,371 +993,761 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>45.79708627600634</v>
+        <v>41.33022577225088</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>26.83152524691578</v>
+        <v>43.51467424933426</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>41.3234115956139</v>
+        <v>53.42496593739565</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>75.29002474858609</v>
+        <v>37.93595952975845</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>39.26178870883071</v>
+        <v>123.8525871669547</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>104.9947959832414</v>
+        <v>124.1310424330165</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>38.5117707495847</v>
+        <v>96.23963159904581</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>101.4742991576342</v>
+        <v>65.70514376943694</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>106.6021677754157</v>
+        <v>75.81106431555679</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>69.34155507426746</v>
+        <v>25.36446735226679</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>84.74013383104247</v>
+        <v>106.303752071009</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>108.5510808987087</v>
+        <v>38.77805462161064</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>27.79284006792783</v>
+        <v>32.84387486945073</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>73.53801272557061</v>
+        <v>72.7759513777151</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>29.98705293764506</v>
+        <v>92.04112859555397</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Colleagues</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>104.8291539435402</v>
+        <v>53.24497978772666</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Colleagues</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>81.89001172060458</v>
+        <v>97.81915376489032</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Colleagues</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>91.59631169145987</v>
+        <v>36.23125820436501</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Colleagues</t>
+          <t>Compensation</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>57.43328769992886</v>
+        <v>67.72469838828945</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Colleagues</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>80.61764733720652</v>
+        <v>42.60660710848016</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Colleagues</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>123.9754787741175</v>
+        <v>90.97811146643561</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Colleagues</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>68.95778873870678</v>
+        <v>76.81837814287593</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Colleagues</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>33.11104989979082</v>
+        <v>57.28534498478044</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Colleagues</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>59.86941548676152</v>
+        <v>43.0134711060215</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Colleagues</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>66.28163934977103</v>
+        <v>53.43798443339365</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Colleagues</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>44.66260834377468</v>
+        <v>16.32924520076737</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Colleagues</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>47.0029069858396</v>
+        <v>102.8259658562364</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Colleagues</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>51.17971753894523</v>
+        <v>45.41043831657473</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
+        <v>10</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>70.98309835611551</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>11</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>18.96447130779364</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>12</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>64.65109897466549</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>13</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>50.67380076399056</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
         <v>14</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Colleagues</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>78.56641314753028</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>110.9899305992184</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>15</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>39.03099327094822</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>16</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>56.7396242537396</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>17</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>80.83670967033808</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>18</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>65.79838219309795</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>19</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>104.2436916048489</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>20</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>34.6735428564058</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>65.66261747589319</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>37.94429338693888</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>75.45115842914211</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>4</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>75.75407140709376</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>65.08766548335271</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>6</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>109.4509584341707</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>76.54758765971221</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>8</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>62.56582209239682</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>9</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>109.0581330574912</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>50.69110425082442</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>11</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>35.09838467933363</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>12</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>127.6185571242596</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>13</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>72.57105192957494</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>14</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>84.06646522653472</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>15</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>80.6410620130309</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>16</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>72.769955636124</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>17</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>74.17440152235834</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>18</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>67.95297459263324</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>19</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>90.15648100482372</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>20</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Colleagues</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>70.06641566555348</v>
       </c>
     </row>
   </sheetData>

--- a/data/Benchmark_Data_Pivot.xlsx
+++ b/data/Benchmark_Data_Pivot.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>67.20473385133047</v>
+        <v>25.46092070582212</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>78.63010069662232</v>
+        <v>35.47070001895196</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>72.43458032973052</v>
+        <v>62.65030358103355</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29.81239756343025</v>
+        <v>53.16831676755705</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>112.467889172675</v>
+        <v>56.72933313736404</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>47.97833772166527</v>
+        <v>79.56627411049811</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>115.1250582621385</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>80.79870948563672</v>
+        <v>61.77368338896039</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>74.95113270080171</v>
+        <v>62.29318466346002</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>60.77557172992015</v>
+        <v>48.36269504309307</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>97.76304832841411</v>
+        <v>26.21767906357819</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>109.235535057134</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>43.74138976081582</v>
+        <v>90.68989183504158</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37.5766571147183</v>
+        <v>30.81115020868923</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30.19232658888301</v>
+        <v>55.44047744661044</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>35.40293979630021</v>
+        <v>56.56134163456932</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>108.0975997812136</v>
+        <v>65.53142484668035</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>96.56955052210475</v>
+        <v>38.10080483931941</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>28.54760002264616</v>
+        <v>28.00689350224013</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>100.2466061084747</v>
+        <v>95.04943788441064</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>46.07665320990305</v>
+        <v>48.89928110391109</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>73.33352598562178</v>
+        <v>13.43946833874935</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>36.39006831610373</v>
+        <v>20.328262771856</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>21.56964384126162</v>
+        <v>15.38001080534552</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>72.9822244490293</v>
+        <v>80.46100733464016</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>94.406976086239</v>
+        <v>19.48720233820424</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>100.0408759846802</v>
+        <v>14.68810980988851</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20.62052569120796</v>
+        <v>72.70511039761431</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>33.76300632014023</v>
+        <v>51.51598588623294</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>99.69559907193678</v>
+        <v>24.49163739036445</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>56.57585366599079</v>
+        <v>43.97070949561198</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>47.13436980365095</v>
+        <v>76.01442758840712</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>79.53369367425483</v>
+        <v>58.30508627637893</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>34.64945386748243</v>
+        <v>48.02463459268451</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>23.70128457989871</v>
+        <v>41.027841706961</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>50.47987470739064</v>
+        <v>30.29428735738359</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>32.53923203854022</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>106.9302808920604</v>
+        <v>8.560731798254054</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>61.7410190091136</v>
+        <v>62.2724052047541</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>40.82497456475512</v>
+        <v>68.77969285782628</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>52.85596913433723</v>
+        <v>29.36823407648259</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>41.33022577225088</v>
+        <v>26.33800329683886</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>43.51467424933426</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>53.42496593739565</v>
+        <v>62.04430198085566</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>37.93595952975845</v>
+        <v>66.29812480115532</v>
       </c>
     </row>
     <row r="47">
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>123.8525871669547</v>
+        <v>94.7708932802425</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>124.1310424330165</v>
+        <v>75.71909102655357</v>
       </c>
     </row>
     <row r="49">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>96.23963159904581</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>65.70514376943694</v>
+        <v>90.50399979915296</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>75.81106431555679</v>
+        <v>39.69592121582553</v>
       </c>
     </row>
     <row r="52">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>25.36446735226679</v>
+        <v>88.21132617235055</v>
       </c>
     </row>
     <row r="53">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>106.303752071009</v>
+        <v>76.24009844570018</v>
       </c>
     </row>
     <row r="54">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>38.77805462161064</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>32.84387486945073</v>
+        <v>52.44895385076189</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>72.7759513777151</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>92.04112859555397</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>53.24497978772666</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>97.81915376489032</v>
+        <v>99.20256804176583</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>36.23125820436501</v>
+        <v>78.96361241406994</v>
       </c>
     </row>
     <row r="61">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>67.72469838828945</v>
+        <v>30.38223535434911</v>
       </c>
     </row>
     <row r="62">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>42.60660710848016</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>90.97811146643561</v>
+        <v>44.82603157826325</v>
       </c>
     </row>
     <row r="64">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>76.81837814287593</v>
+        <v>45.0693541582294</v>
       </c>
     </row>
     <row r="65">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>57.28534498478044</v>
+        <v>43.87679514285356</v>
       </c>
     </row>
     <row r="66">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>43.0134711060215</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67">
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>53.43798443339365</v>
+        <v>41.70673899721343</v>
       </c>
     </row>
     <row r="68">
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>16.32924520076737</v>
+        <v>79.27647896967049</v>
       </c>
     </row>
     <row r="69">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>102.8259658562364</v>
+        <v>76.36980188576024</v>
       </c>
     </row>
     <row r="70">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>45.41043831657473</v>
+        <v>45.94876242539156</v>
       </c>
     </row>
     <row r="71">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>70.98309835611551</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>18.96447130779364</v>
+        <v>83.84160136738717</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>64.65109897466549</v>
+        <v>37.17206092743768</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>50.67380076399056</v>
+        <v>86.19931411257902</v>
       </c>
     </row>
     <row r="75">
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>110.9899305992184</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>39.03099327094822</v>
+        <v>92.67614514625859</v>
       </c>
     </row>
     <row r="77">
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>56.7396242537396</v>
+        <v>15.46691612318783</v>
       </c>
     </row>
     <row r="78">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>80.83670967033808</v>
+        <v>99.80490147995826</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>65.79838219309795</v>
+        <v>55.34113756524128</v>
       </c>
     </row>
     <row r="80">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>104.2436916048489</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>34.6735428564058</v>
+        <v>48.66982999772584</v>
       </c>
     </row>
     <row r="82">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>65.66261747589319</v>
+        <v>79.76887265481093</v>
       </c>
     </row>
     <row r="83">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>37.94429338693888</v>
+        <v>76.34167738253856</v>
       </c>
     </row>
     <row r="84">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>75.45115842914211</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85">
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>75.75407140709376</v>
+        <v>57.66466763358127</v>
       </c>
     </row>
     <row r="86">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>65.08766548335271</v>
+        <v>29.89297777248765</v>
       </c>
     </row>
     <row r="87">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>109.4509584341707</v>
+        <v>76.58343204936317</v>
       </c>
     </row>
     <row r="88">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>76.54758765971221</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>62.56582209239682</v>
+        <v>43.46939083426755</v>
       </c>
     </row>
     <row r="90">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>109.0581330574912</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>50.69110425082442</v>
+        <v>73.72837648363699</v>
       </c>
     </row>
     <row r="92">
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>35.09838467933363</v>
+        <v>78.14059510703973</v>
       </c>
     </row>
     <row r="93">
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>127.6185571242596</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>72.57105192957494</v>
+        <v>64.38484309842855</v>
       </c>
     </row>
     <row r="95">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>84.06646522653472</v>
+        <v>95.65773559565649</v>
       </c>
     </row>
     <row r="96">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>80.6410620130309</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>72.769955636124</v>
+        <v>92.36382799119454</v>
       </c>
     </row>
     <row r="98">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>74.17440152235834</v>
+        <v>81.5009264733345</v>
       </c>
     </row>
     <row r="99">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>67.95297459263324</v>
+        <v>40.00522405864503</v>
       </c>
     </row>
     <row r="100">
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>90.15648100482372</v>
+        <v>96.0828309977109</v>
       </c>
     </row>
     <row r="101">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>70.06641566555348</v>
+        <v>38.51221430445766</v>
       </c>
     </row>
   </sheetData>
